--- a/DANIEL/Teszt/Program1/Tesztesetek.xlsx
+++ b/DANIEL/Teszt/Program1/Tesztesetek.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Iskola\DANIEL\Teszt\Program1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5639D85-C1BD-4CED-89BD-3A55505FC488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E06AB10-0022-45A0-B805-07378897DF7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E76C08E6-68FF-49AA-88B9-EE0AC9DA6B96}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="38">
   <si>
     <t>Várható eredmény</t>
   </si>
@@ -84,9 +84,6 @@
     <t>Hiba kidobása a dekódolás nem lehetőségével kapcsolatban</t>
   </si>
   <si>
-    <t>"Kódolandó" és kódolt megcserélődés</t>
-  </si>
-  <si>
     <t>Fájlból való beolvasás</t>
   </si>
   <si>
@@ -145,6 +142,15 @@
   </si>
   <si>
     <t>Hiba kidobása vagy ne engedélyezze a kódolást</t>
+  </si>
+  <si>
+    <t>Caesar kulcs megadása</t>
+  </si>
+  <si>
+    <t>Ne lehessen 25 nél nagyobb számot megadni</t>
+  </si>
+  <si>
+    <t>"Kódolandó" és "kódolt" megcserélődés</t>
   </si>
 </sst>
 </file>
@@ -520,10 +526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C0231CE-89BE-4B9A-B007-29C9D24325B8}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -556,13 +562,13 @@
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -590,7 +596,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -609,10 +615,10 @@
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>8</v>
@@ -623,10 +629,10 @@
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>8</v>
@@ -637,10 +643,10 @@
         <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>8</v>
@@ -651,10 +657,10 @@
         <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>8</v>
@@ -665,10 +671,10 @@
         <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>8</v>
@@ -679,10 +685,10 @@
         <v>11</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>8</v>
@@ -693,10 +699,10 @@
         <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>8</v>
@@ -707,10 +713,10 @@
         <v>13</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>8</v>
@@ -721,10 +727,10 @@
         <v>14</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>8</v>
@@ -735,18 +741,32 @@
         <v>15</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="D15" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>16</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/DANIEL/Teszt/Program1/Tesztesetek.xlsx
+++ b/DANIEL/Teszt/Program1/Tesztesetek.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Iskola\DANIEL\Teszt\Program1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E06AB10-0022-45A0-B805-07378897DF7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EE65EAD-6303-42B3-B7AD-A272D797F6DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E76C08E6-68FF-49AA-88B9-EE0AC9DA6B96}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{E76C08E6-68FF-49AA-88B9-EE0AC9DA6B96}"/>
   </bookViews>
   <sheets>
     <sheet name="program1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="71">
   <si>
     <t>Várható eredmény</t>
   </si>
@@ -66,9 +66,6 @@
     <t>HIBA</t>
   </si>
   <si>
-    <t>Mentés megszakítása</t>
-  </si>
-  <si>
     <t>Visszajelzés a mentés hibájával kapcsolatban</t>
   </si>
   <si>
@@ -84,57 +81,21 @@
     <t>Hiba kidobása a dekódolás nem lehetőségével kapcsolatban</t>
   </si>
   <si>
-    <t>Fájlból való beolvasás</t>
-  </si>
-  <si>
-    <t>Fájl beovasás / Mentés</t>
-  </si>
-  <si>
     <t>Siker estén visszajelzés</t>
   </si>
   <si>
-    <t>Beolvasás törlése</t>
-  </si>
-  <si>
     <t>Ne legyen lehetőség törölni a beolvasást ha nem történt beolvasás</t>
   </si>
   <si>
-    <t xml:space="preserve">Mentés </t>
-  </si>
-  <si>
-    <t>A mentés során csak txt-be lehessen menteni a fájlt</t>
-  </si>
-  <si>
     <t>XOR használata</t>
   </si>
   <si>
-    <t>Külön gomb a dekodolásra várható</t>
-  </si>
-  <si>
-    <t>Hibavál való visszatérés</t>
-  </si>
-  <si>
-    <t>A hibát kifejtve kapom meg</t>
-  </si>
-  <si>
-    <t>Visszajezés arról hogy sortéreseket ne használjon</t>
-  </si>
-  <si>
-    <t>Mentés</t>
-  </si>
-  <si>
     <t xml:space="preserve"> A mentett fájlban megjeleníti milyen módon (de)kódoltunk</t>
   </si>
   <si>
-    <t>Kódolás/Dekdolás</t>
-  </si>
-  <si>
     <t>Megjelenít egy leírást a kódolás mentelé-/működésé-ről</t>
   </si>
   <si>
-    <t>Üres fájl beolvasása</t>
-  </si>
-  <si>
     <t>Hiba kidobása üres fájl esetén</t>
   </si>
   <si>
@@ -150,7 +111,145 @@
     <t>Ne lehessen 25 nél nagyobb számot megadni</t>
   </si>
   <si>
-    <t>"Kódolandó" és "kódolt" megcserélődés</t>
+    <t>Visszajelzés a sikeres műveletről</t>
+  </si>
+  <si>
+    <t>Ceasar kulcs megadása</t>
+  </si>
+  <si>
+    <t>Hiba visszadobása vagy ne is engedje alapvetően</t>
+  </si>
+  <si>
+    <t>A kódolandó és kódolt szöveg törlése</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> HIBA</t>
+  </si>
+  <si>
+    <t>Program megnyitása</t>
+  </si>
+  <si>
+    <t>Az ablak helyes méretben nyílik meg</t>
+  </si>
+  <si>
+    <t>Mentés megszakítása (összes)</t>
+  </si>
+  <si>
+    <t>"Kódolandó" és "kódolt" label megcserélődés</t>
+  </si>
+  <si>
+    <t>Fájlból való beolvasás (összes)</t>
+  </si>
+  <si>
+    <t>Visszajezés arról hogy sortéreseket ne használjon a felhasználó</t>
+  </si>
+  <si>
+    <t>Fájl beovasás / Mentés (összes)</t>
+  </si>
+  <si>
+    <t>Beolvasás törlése (összes)</t>
+  </si>
+  <si>
+    <t>Mentés (összes)</t>
+  </si>
+  <si>
+    <t>A mentés során csak szöveges fájl-ba lehessen menteni a szöveget</t>
+  </si>
+  <si>
+    <t>Külön gomb a dekodolásra lehetőségére</t>
+  </si>
+  <si>
+    <t>A hibát kifejtve kapom meg ezzel a felhasználót informálva mi idézte elő a hibát</t>
+  </si>
+  <si>
+    <t>Hibavál való visszatérés (legtöbb esetben)</t>
+  </si>
+  <si>
+    <t>Üres fájl beolvasása (összes)</t>
+  </si>
+  <si>
+    <t>Kódolás/Dekdolás (összes)</t>
+  </si>
+  <si>
+    <t>Kódolás / Dekódolás (összes)</t>
+  </si>
+  <si>
+    <t>Nem lehetséges külcs megadása esetén hiba kidobása</t>
+  </si>
+  <si>
+    <t>Nem szöveges fájl beolvasása (összes)</t>
+  </si>
+  <si>
+    <t>1.</t>
+  </si>
+  <si>
+    <t>A kódolás és dekódolás váltásánál nem cseréli meg a "kódolandó" és "kódolt" labelt ezzel nem visszajelezve hogy a váltás sikerült</t>
+  </si>
+  <si>
+    <t>Mentés megszakítása esetén a program nem jelez vissza arról hogy a mentés meg lett szakítva ezzel nem informálva a felhasználót</t>
+  </si>
+  <si>
+    <t>3.</t>
+  </si>
+  <si>
+    <t>Nem jelzi és engedi hogy ékezetes betűt használjunk ott ahol nem lehetne rá lehetőség</t>
+  </si>
+  <si>
+    <t>4.</t>
+  </si>
+  <si>
+    <t>Nem helyesen dekódol mivel a rossz a bement mégsem ad hibát és engedi ezzel félrevezetve a felhasználót</t>
+  </si>
+  <si>
+    <t>5.</t>
+  </si>
+  <si>
+    <t>Engedi és nem is jelez vissza a program hogy nem lehet a beolvasott fájlban sortörés</t>
+  </si>
+  <si>
+    <t>6.</t>
+  </si>
+  <si>
+    <t>Nem jelez vissza a program sikeres beolvasás/mentés esetén</t>
+  </si>
+  <si>
+    <t>7.</t>
+  </si>
+  <si>
+    <t>Lehetőségünk van törölni a beolvasott fájlt beolvasott fájl nálkül is</t>
+  </si>
+  <si>
+    <t>8.</t>
+  </si>
+  <si>
+    <t>A mentett szöveget bármilyen vagy semmilyen kiterjesztésben végre tudjuk hajtani</t>
+  </si>
+  <si>
+    <t>9.</t>
+  </si>
+  <si>
+    <t>Nincs gomb a dekódolásra</t>
+  </si>
+  <si>
+    <t>10.</t>
+  </si>
+  <si>
+    <t>A legtöbb hiba esetén semmilyen informatív visszajelzés nem kapunk csak annyit hogy "Hiba"</t>
+  </si>
+  <si>
+    <t>11.</t>
+  </si>
+  <si>
+    <t>A mentett fájlban nem kapunk információt arról hogy miből vagy miben hajtottuk végre</t>
+  </si>
+  <si>
+    <t>12.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nem kapunk információt arról hogy hogyan működik az adott kódolás </t>
+  </si>
+  <si>
+    <t>13.</t>
   </si>
 </sst>
 </file>
@@ -526,17 +625,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C0231CE-89BE-4B9A-B007-29C9D24325B8}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView topLeftCell="A11" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="28.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="29.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="38.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="14.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -562,7 +661,7 @@
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>8</v>
@@ -573,24 +672,24 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>8</v>
@@ -601,10 +700,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>8</v>
@@ -612,41 +711,41 @@
     </row>
     <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>7</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>8</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>8</v>
@@ -654,41 +753,41 @@
     </row>
     <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="B10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>11</v>
-      </c>
       <c r="B11" s="1" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>8</v>
@@ -696,13 +795,13 @@
     </row>
     <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>8</v>
@@ -710,13 +809,13 @@
     </row>
     <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>8</v>
@@ -724,13 +823,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>8</v>
@@ -738,13 +837,13 @@
     </row>
     <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>8</v>
@@ -752,21 +851,86 @@
     </row>
     <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="1" t="s">
+      <c r="B17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>17</v>
+      <c r="C20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -776,28 +940,125 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C129132E-D5C9-42AC-BCD9-E2627BC4C341}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="42.28515625" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="61" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/DANIEL/Teszt/Program1/Tesztesetek.xlsx
+++ b/DANIEL/Teszt/Program1/Tesztesetek.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Iskola\DANIEL\Teszt\Program1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EE65EAD-6303-42B3-B7AD-A272D797F6DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71B0ED56-13ED-4EA7-AD09-6731800AADF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{E76C08E6-68FF-49AA-88B9-EE0AC9DA6B96}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E76C08E6-68FF-49AA-88B9-EE0AC9DA6B96}"/>
   </bookViews>
   <sheets>
     <sheet name="program1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="104">
   <si>
     <t>Várható eredmény</t>
   </si>
@@ -69,9 +69,6 @@
     <t>Visszajelzés a mentés hibájával kapcsolatban</t>
   </si>
   <si>
-    <t>Ékezetes betű bementként</t>
-  </si>
-  <si>
     <t>Hiba kidobása az ékezettel kapcsolatban</t>
   </si>
   <si>
@@ -81,9 +78,6 @@
     <t>Hiba kidobása a dekódolás nem lehetőségével kapcsolatban</t>
   </si>
   <si>
-    <t>Siker estén visszajelzés</t>
-  </si>
-  <si>
     <t>Ne legyen lehetőség törölni a beolvasást ha nem történt beolvasás</t>
   </si>
   <si>
@@ -114,9 +108,6 @@
     <t>Visszajelzés a sikeres műveletről</t>
   </si>
   <si>
-    <t>Ceasar kulcs megadása</t>
-  </si>
-  <si>
     <t>Hiba visszadobása vagy ne is engedje alapvetően</t>
   </si>
   <si>
@@ -144,21 +135,12 @@
     <t>Visszajezés arról hogy sortéreseket ne használjon a felhasználó</t>
   </si>
   <si>
-    <t>Fájl beovasás / Mentés (összes)</t>
-  </si>
-  <si>
     <t>Beolvasás törlése (összes)</t>
   </si>
   <si>
-    <t>Mentés (összes)</t>
-  </si>
-  <si>
     <t>A mentés során csak szöveges fájl-ba lehessen menteni a szöveget</t>
   </si>
   <si>
-    <t>Külön gomb a dekodolásra lehetőségére</t>
-  </si>
-  <si>
     <t>A hibát kifejtve kapom meg ezzel a felhasználót informálva mi idézte elő a hibát</t>
   </si>
   <si>
@@ -174,9 +156,6 @@
     <t>Kódolás / Dekódolás (összes)</t>
   </si>
   <si>
-    <t>Nem lehetséges külcs megadása esetén hiba kidobása</t>
-  </si>
-  <si>
     <t>Nem szöveges fájl beolvasása (összes)</t>
   </si>
   <si>
@@ -250,16 +229,143 @@
   </si>
   <si>
     <t>13.</t>
+  </si>
+  <si>
+    <t>Nem kaőunk visszajelzést arról hogy a beolvasott fájl üres</t>
+  </si>
+  <si>
+    <t>14.</t>
+  </si>
+  <si>
+    <t>Mikor nem adunk meg kulcsot akkor is legenerál egy üres táblát amire nem kéne hogy legyen legetőség és ezután még a kódolást is engedélyezi</t>
+  </si>
+  <si>
+    <t>15.</t>
+  </si>
+  <si>
+    <t>16.</t>
+  </si>
+  <si>
+    <t>17.</t>
+  </si>
+  <si>
+    <t>18.</t>
+  </si>
+  <si>
+    <t>19.</t>
+  </si>
+  <si>
+    <t>20.</t>
+  </si>
+  <si>
+    <t>Fölöslegesen lehet megadni 25 néol nagyobb számot. (26 nál a kapott szöveg ugyan az, felette pedig csak csak újra kezdi 1-től)</t>
+  </si>
+  <si>
+    <t>Nem kapunk visszajelzést semelyik helyes (de)kódolás-ról</t>
+  </si>
+  <si>
+    <t>Miután egy helytelen számot adtunk meg nem kapunk hiba üzentet</t>
+  </si>
+  <si>
+    <t>Egy nem szöveges fájl beolvasasa után a program lefagy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nem törli a kódolt szöveget </t>
+  </si>
+  <si>
+    <t>Az ablak mérete kisebb ezzel levágva a kilépés alját</t>
+  </si>
+  <si>
+    <t>Ékezetes betű bemenetként</t>
+  </si>
+  <si>
+    <t>Külön gomb a dekodolás lehetőségére</t>
+  </si>
+  <si>
+    <t>Siker esetén visszajelzés</t>
+  </si>
+  <si>
+    <t>Mentés (összes) kiterjesztés változtatása</t>
+  </si>
+  <si>
+    <t>Sikeres mentés (összes)</t>
+  </si>
+  <si>
+    <t>Mentés megtekintése (összes)</t>
+  </si>
+  <si>
+    <t>Morze kódolás</t>
+  </si>
+  <si>
+    <t>Helyesen kódol</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>Fájlbeolvasas (összes)</t>
+  </si>
+  <si>
+    <t>Az egy sorban lévő szöveget helyesen kódolja/dekódolja</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fájlbeolvasas sikeresen (összess)</t>
+  </si>
+  <si>
+    <t>Ha nem a megadott intervallumban irunk bele akkor visszajelzést kapunk róla</t>
+  </si>
+  <si>
+    <t>MD5 kódolás</t>
+  </si>
+  <si>
+    <t>Leet kódolás</t>
+  </si>
+  <si>
+    <t>Helyes kódolás</t>
+  </si>
+  <si>
+    <t>Kilépés gombra kattintás</t>
+  </si>
+  <si>
+    <t>Kilép a programból</t>
+  </si>
+  <si>
+    <t>Beolvasás törlése gombra kattintás</t>
+  </si>
+  <si>
+    <t>Törli a beolvasott szöveget</t>
+  </si>
+  <si>
+    <t>Vigenére használata kulcs nélkül</t>
+  </si>
+  <si>
+    <t>Visszajelzés a felhasználónak a hibával kapcsolatban</t>
+  </si>
+  <si>
+    <t>Ceasar rossz kulcs megadása</t>
+  </si>
+  <si>
+    <t>Nem lehetséges külcs megadása esetén ne kódoljon</t>
+  </si>
+  <si>
+    <t>Helyes kódolás/dekódolás</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="238"/>
@@ -625,10 +731,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C0231CE-89BE-4B9A-B007-29C9D24325B8}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -661,7 +767,7 @@
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>8</v>
@@ -672,7 +778,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>9</v>
@@ -686,24 +792,24 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>8</v>
@@ -714,24 +820,24 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>8</v>
@@ -742,10 +848,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>8</v>
@@ -756,10 +862,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>8</v>
@@ -770,10 +876,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>8</v>
@@ -784,10 +890,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>8</v>
@@ -798,10 +904,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>8</v>
@@ -812,10 +918,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>8</v>
@@ -826,10 +932,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>8</v>
@@ -840,10 +946,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>8</v>
@@ -854,10 +960,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>8</v>
@@ -868,10 +974,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>8</v>
@@ -882,10 +988,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>25</v>
+        <v>101</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>8</v>
@@ -896,10 +1002,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>8</v>
@@ -910,13 +1016,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -924,13 +1030,153 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="B30" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>8</v>
+      <c r="B31" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -940,10 +1186,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C129132E-D5C9-42AC-BCD9-E2627BC4C341}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -962,10 +1208,10 @@
     </row>
     <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -973,95 +1219,155 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>70</v>
       </c>
+      <c r="B19" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>78</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>